--- a/data/variables_info.xlsx
+++ b/data/variables_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyanchew/Desktop/social-network-synthesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CFFF37-721D-5249-A49A-752CBD3E8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D3C55-CD7D-6D43-B844-EF04BF08B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A9D5B10D-2F6A-3140-9FF4-56BC217E92B6}"/>
   </bookViews>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486A1B2-A635-884B-9404-7CAAB6FE45AD}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>

--- a/data/variables_info.xlsx
+++ b/data/variables_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyanchew/Desktop/social-network-synthesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D3C55-CD7D-6D43-B844-EF04BF08B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D31DC-6A1D-3249-81C6-F07B73C1C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A9D5B10D-2F6A-3140-9FF4-56BC217E92B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{A9D5B10D-2F6A-3140-9FF4-56BC217E92B6}"/>
   </bookViews>
   <sheets>
     <sheet name="variables_model1_a" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
   <si>
     <t>Variables</t>
   </si>
@@ -151,9 +151,6 @@
     <t>The number of friends</t>
   </si>
   <si>
-    <t>depending on quartile</t>
-  </si>
-  <si>
     <t>The number of colleagues</t>
   </si>
   <si>
@@ -166,27 +163,12 @@
     <t>The number of parents</t>
   </si>
   <si>
-    <t>1-2 parents</t>
-  </si>
-  <si>
-    <t>3-4 parents</t>
-  </si>
-  <si>
-    <t>5-6 parents</t>
-  </si>
-  <si>
-    <t>could be depending on quartile</t>
-  </si>
-  <si>
     <t>The number of siblings</t>
   </si>
   <si>
     <t>which included father, mother, stepparents or parents-in-law</t>
   </si>
   <si>
-    <t>quartile</t>
-  </si>
-  <si>
     <t>siblings, stepsiblings, siblings-in-law</t>
   </si>
   <si>
@@ -488,6 +470,84 @@
   </si>
   <si>
     <t>&gt;=12</t>
+  </si>
+  <si>
+    <t>0-1 friend</t>
+  </si>
+  <si>
+    <t>2 friends</t>
+  </si>
+  <si>
+    <t>&gt;5 friends</t>
+  </si>
+  <si>
+    <t>0 colleague</t>
+  </si>
+  <si>
+    <t>&gt;3 colleagues</t>
+  </si>
+  <si>
+    <t>1-3 colleagues</t>
+  </si>
+  <si>
+    <t>0 neighbor</t>
+  </si>
+  <si>
+    <t>1-3 neighbors</t>
+  </si>
+  <si>
+    <t>&gt;3 neighbors</t>
+  </si>
+  <si>
+    <t>0 grandparent</t>
+  </si>
+  <si>
+    <t>&gt;0 grandparents</t>
+  </si>
+  <si>
+    <t>0 parent</t>
+  </si>
+  <si>
+    <t>&gt;0 parents</t>
+  </si>
+  <si>
+    <t>0 sibling</t>
+  </si>
+  <si>
+    <t>1-2 siblings</t>
+  </si>
+  <si>
+    <t>&gt;2 siblings</t>
+  </si>
+  <si>
+    <t>0 children</t>
+  </si>
+  <si>
+    <t>&gt;0 children</t>
+  </si>
+  <si>
+    <t>0 other</t>
+  </si>
+  <si>
+    <t>&gt;4 others</t>
+  </si>
+  <si>
+    <t>1-4 others</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
 </sst>
 </file>
@@ -530,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -543,6 +603,12 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53550402-5DBD-1F4F-8B26-8673CD9B4F41}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,6 +1229,9 @@
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E22" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
@@ -1171,6 +1240,9 @@
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E23" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
@@ -1179,10 +1251,13 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E24" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>36</v>
@@ -1191,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1">
         <v>0.39514899999999997</v>
@@ -1202,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>0.30203400000000002</v>
@@ -1213,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1">
         <v>0.14397499999999999</v>
@@ -1224,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1">
         <v>0.15884200000000001</v>
@@ -1232,13 +1307,13 @@
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1">
         <v>0.44522699999999998</v>
@@ -1249,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1">
         <v>0.27855999999999997</v>
@@ -1260,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E31" s="1">
         <v>0.27621299999999999</v>
@@ -1268,13 +1343,13 @@
     </row>
     <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1">
         <v>0.375587</v>
@@ -1285,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1">
         <v>0.387324</v>
@@ -1296,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1">
         <v>0.23708899999999999</v>
@@ -1304,13 +1379,13 @@
     </row>
     <row r="35" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1">
         <v>0.701878</v>
@@ -1321,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1">
         <v>0.298122</v>
@@ -1329,7 +1404,7 @@
     </row>
     <row r="37" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1341,7 +1416,7 @@
         <v>0.33411600000000002</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1349,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1">
         <v>0.20344300000000001</v>
@@ -1360,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E39" s="1">
         <v>0.22144</v>
@@ -1371,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1">
         <v>0.24100199999999999</v>
@@ -1379,19 +1454,19 @@
     </row>
     <row r="41" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1">
         <v>0.61893600000000004</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1399,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1">
         <v>0.233177</v>
@@ -1410,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1">
         <v>8.5290000000000005E-2</v>
@@ -1421,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1">
         <v>6.2598000000000001E-2</v>
@@ -1429,19 +1504,19 @@
     </row>
     <row r="45" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1">
         <v>0.49139300000000002</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1449,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E46" s="1">
         <v>0.50860700000000003</v>
@@ -1457,19 +1532,19 @@
     </row>
     <row r="47" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1">
         <v>0.532864</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1477,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E48" s="1">
         <v>0.161972</v>
@@ -1488,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1">
         <v>9.3114000000000002E-2</v>
@@ -1499,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1">
         <v>0.21204999999999999</v>
@@ -1507,16 +1582,16 @@
     </row>
     <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1">
         <v>0.35367799999999999</v>
@@ -1527,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1">
         <v>0.43662000000000001</v>
@@ -1538,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1">
         <v>9.7027000000000002E-2</v>
@@ -1549,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1">
         <v>6.8074999999999997E-2</v>
@@ -1560,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E55" s="1">
         <v>4.4601000000000002E-2</v>
@@ -1568,13 +1643,13 @@
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1">
         <v>0.28325499999999998</v>
@@ -1585,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1">
         <v>0.39280100000000001</v>
@@ -1596,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1">
         <v>0.137715</v>
@@ -1607,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E59" s="1">
         <v>7.8246999999999997E-2</v>
@@ -1618,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1">
         <v>0.10798099999999999</v>
@@ -1626,13 +1701,13 @@
     </row>
     <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1">
         <v>0.16040699999999999</v>
@@ -1643,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1">
         <v>0.25273899999999999</v>
@@ -1654,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1">
         <v>0.17449100000000001</v>
@@ -1665,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E64" s="1">
         <v>0.16040699999999999</v>
@@ -1676,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1">
         <v>0.26447599999999999</v>
@@ -1684,13 +1759,13 @@
     </row>
     <row r="66" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E66" s="1">
         <v>0.16823199999999999</v>
@@ -1701,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E67" s="1">
         <v>7.9811999999999994E-2</v>
@@ -1712,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E68" s="1">
         <v>0.120501</v>
@@ -1723,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1">
         <v>0.63145499999999999</v>
@@ -1731,13 +1806,13 @@
     </row>
     <row r="70" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E70" s="1">
         <v>0.14006299999999999</v>
@@ -1748,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1">
         <v>0.129108</v>
@@ -1759,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E72" s="1">
         <v>0.156495</v>
@@ -1770,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E73" s="1">
         <v>0.57433500000000004</v>
@@ -1778,13 +1853,13 @@
     </row>
     <row r="74" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E74" s="1">
         <v>0.15962399999999999</v>
@@ -1795,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E75" s="1">
         <v>0.12206599999999999</v>
@@ -1806,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E76" s="1">
         <v>8.6854000000000001E-2</v>
@@ -1817,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E77" s="1">
         <v>0.116588</v>
@@ -1828,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E78" s="1">
         <v>0.51486699999999996</v>
@@ -1836,13 +1911,13 @@
     </row>
     <row r="79" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E79" s="1">
         <v>6.1815000000000002E-2</v>
@@ -1853,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E80" s="1">
         <v>0.157277</v>
@@ -1864,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E81" s="1">
         <v>0.24726100000000001</v>
@@ -1875,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E82" s="1">
         <v>0.53364599999999995</v>
@@ -1883,13 +1958,13 @@
     </row>
     <row r="83" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E83" s="1">
         <v>0.15101700000000001</v>
@@ -1900,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E84" s="1">
         <v>0.18388099999999999</v>
@@ -1911,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E85" s="1">
         <v>0.107199</v>
@@ -1922,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E86" s="1">
         <v>0.114241</v>
@@ -1933,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E87" s="1">
         <v>0.443662</v>
@@ -1946,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486A1B2-A635-884B-9404-7CAAB6FE45AD}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A16" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1979,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1992,7 +2067,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2003,9 +2080,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2016,9 +2095,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -2027,9 +2108,11 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -2038,9 +2121,11 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2049,9 +2134,11 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -2062,7 +2149,9 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -2073,9 +2162,11 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -2084,9 +2175,11 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -2097,9 +2190,11 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -2108,9 +2203,11 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -2119,9 +2216,11 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -2130,9 +2229,11 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -2143,7 +2244,9 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -2154,9 +2257,11 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -2167,9 +2272,11 @@
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -2178,9 +2285,11 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -2189,9 +2298,11 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -2200,9 +2311,11 @@
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -2211,9 +2324,11 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
@@ -2224,9 +2339,11 @@
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -2235,9 +2352,11 @@
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -2246,241 +2365,601 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="E33" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="E34" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="1">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="1">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="1">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="1">
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="1">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="1">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="1">
+        <v>35</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B698F7-9272-3140-A0B9-7C7DE6F13A2E}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2524,7 +3003,7 @@
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2792,16 +3271,16 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1">
         <v>45.12</v>
@@ -2812,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>54.88</v>
@@ -2820,7 +3299,7 @@
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2867,7 +3346,7 @@
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2892,16 +3371,16 @@
     </row>
     <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1">
         <v>59.57</v>
@@ -2912,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1">
         <v>40.43</v>
@@ -2920,13 +3399,13 @@
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1">
         <v>-3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1">
         <v>2.8181000000000001E-2</v>
@@ -2953,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1">
         <v>0.46420400000000001</v>
@@ -2964,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1">
         <v>0.15229599999999999</v>
@@ -2988,13 +3467,13 @@
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1">
         <v>-1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1">
         <v>19.79</v>
@@ -3005,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1">
         <v>64.599999999999994</v>
@@ -3016,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1">
         <v>15.61</v>
@@ -3024,16 +3503,16 @@
     </row>
     <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1">
         <v>27.01</v>
@@ -3044,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1">
         <v>30.21</v>
@@ -3055,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1">
         <v>22.86</v>
@@ -3066,377 +3545,396 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1">
         <v>16.32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1">
         <v>25.39</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
         <v>26.74</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1">
         <v>47.87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E53" s="1">
         <v>26.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E54" s="1">
         <v>14.62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E55" s="1">
         <v>13.88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1">
         <v>4.8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1">
         <v>7.71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E58" s="1">
         <v>12.7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1">
         <v>6.21</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E60" s="1">
         <v>13.38</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1">
         <v>0.20944699999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F61" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E62" s="1">
         <v>3.3869000000000003E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F62" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E63" s="1">
         <v>5.2392000000000001E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F63" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E64" s="1">
         <v>8.1884999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1">
         <v>9.0217000000000006E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F65" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E66" s="1">
         <v>0.136794</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E67" s="1">
         <v>0.20099500000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F67" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E68" s="1">
         <v>9.8129999999999995E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E69" s="1">
         <v>9.6270999999999995E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1">
         <v>0.33077600000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E71" s="1">
         <v>3.0332000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E72" s="1">
         <v>4.1661999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E73" s="1">
         <v>6.2043000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E74" s="1">
         <v>7.2472999999999996E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <v>5</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E75" s="1">
         <v>9.8969000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1">
         <v>0.17971500000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1">
         <v>9.5311999999999994E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E78" s="1">
         <v>8.8718000000000005E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1">
         <v>0.61635300000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E80" s="1">
         <v>7.9729999999999992E-3</v>
@@ -3447,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E81" s="1">
         <v>9.7109999999999991E-3</v>
@@ -3458,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E82" s="1">
         <v>1.4206999999999999E-2</v>
@@ -3469,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E83" s="1">
         <v>2.0140999999999999E-2</v>
@@ -3480,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E84" s="1">
         <v>3.3389000000000002E-2</v>
@@ -3491,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E85" s="1">
         <v>0.115993</v>
@@ -3502,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E86" s="1">
         <v>9.5432000000000003E-2</v>
@@ -3513,7 +4011,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E87" s="1">
         <v>8.6800000000000002E-2</v>
@@ -3521,13 +4019,13 @@
     </row>
     <row r="88" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1">
         <v>0.80649800000000005</v>
@@ -3538,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1">
         <v>6.5339999999999999E-3</v>
@@ -3549,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1">
         <v>6.594E-3</v>
@@ -3560,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E91" s="1">
         <v>8.5719999999999998E-3</v>
@@ -3571,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E92" s="1">
         <v>1.133E-2</v>
@@ -3582,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E93" s="1">
         <v>1.5585999999999999E-2</v>
@@ -3593,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E94" s="1">
         <v>2.8174000000000001E-2</v>
@@ -3604,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E95" s="1">
         <v>2.0621E-2</v>
@@ -3615,7 +4113,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E96" s="1">
         <v>9.6091999999999997E-2</v>
@@ -3623,13 +4121,13 @@
     </row>
     <row r="97" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E97" s="1">
         <v>0.81285200000000002</v>
@@ -3640,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E98" s="1">
         <v>6.9540000000000001E-3</v>
@@ -3651,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E99" s="1">
         <v>4.3160000000000004E-3</v>
@@ -3662,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E100" s="1">
         <v>4.6759999999999996E-3</v>
@@ -3673,7 +4171,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E101" s="1">
         <v>8.2719999999999998E-3</v>
@@ -3684,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E102" s="1">
         <v>1.1089999999999999E-2</v>
@@ -3695,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E103" s="1">
         <v>2.7934E-2</v>
@@ -3706,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1">
         <v>3.2190000000000003E-2</v>
@@ -3717,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E105" s="1">
         <v>9.1716000000000006E-2</v>
@@ -3725,13 +4223,13 @@
     </row>
     <row r="106" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C106" s="3">
         <v>0</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E106" s="1">
         <v>0.77796399999999999</v>
@@ -3742,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E107" s="1">
         <v>8.9320000000000007E-3</v>
@@ -3753,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E108" s="1">
         <v>9.5309999999999995E-3</v>
@@ -3764,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E109" s="1">
         <v>1.4567E-2</v>
@@ -3775,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E110" s="1">
         <v>1.6844999999999999E-2</v>
@@ -3786,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E111" s="1">
         <v>1.9241999999999999E-2</v>
@@ -3797,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E112" s="1">
         <v>4.7356000000000002E-2</v>
@@ -3808,7 +4306,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E113" s="1">
         <v>3.0872E-2</v>
@@ -3819,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E114" s="1">
         <v>7.4690999999999994E-2</v>
@@ -3827,13 +4325,13 @@
     </row>
     <row r="115" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C115" s="3">
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E115" s="1">
         <v>0.79774599999999996</v>
@@ -3844,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E116" s="1">
         <v>6.894E-3</v>
@@ -3855,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E117" s="1">
         <v>4.8560000000000001E-3</v>
@@ -3866,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E118" s="1">
         <v>3.8960000000000002E-3</v>
@@ -3877,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E119" s="1">
         <v>7.0140000000000003E-3</v>
@@ -3888,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E120" s="1">
         <v>4.9750000000000003E-3</v>
@@ -3899,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E121" s="1">
         <v>1.9722E-2</v>
@@ -3910,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E122" s="1">
         <v>5.2451999999999999E-2</v>
@@ -3921,7 +4419,7 @@
         <v>8</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E123" s="1">
         <v>0.102446</v>
@@ -3929,13 +4427,13 @@
     </row>
     <row r="124" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E124" s="1">
         <v>0.79241099999999998</v>
@@ -3946,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E125" s="1">
         <v>7.9129999999999999E-3</v>
@@ -3957,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E126" s="1">
         <v>7.5529999999999998E-3</v>
@@ -3968,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E127" s="1">
         <v>1.1209999999999999E-2</v>
@@ -3979,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E128" s="1">
         <v>1.5765000000000001E-2</v>
@@ -3990,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E129" s="1">
         <v>2.0140999999999999E-2</v>
@@ -4001,7 +4499,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E130" s="1">
         <v>4.2320999999999998E-2</v>
@@ -4012,7 +4510,7 @@
         <v>7</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E131" s="1">
         <v>2.2959E-2</v>
@@ -4023,13 +4521,18 @@
         <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E132" s="1">
         <v>7.9727000000000006E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>